--- a/outputs-r202/g__UBA6398_train.xlsx
+++ b/outputs-r202/g__UBA6398_train.xlsx
@@ -552,12 +552,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -585,8 +585,10 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -618,8 +620,10 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -651,8 +655,10 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -684,8 +690,10 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -717,8 +725,10 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -750,8 +760,10 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -783,8 +795,10 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -816,8 +830,10 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -849,8 +865,10 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -882,8 +900,10 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -915,8 +935,10 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -948,8 +970,10 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -981,8 +1005,10 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1014,8 +1040,10 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1047,8 +1075,10 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1080,8 +1110,10 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1113,8 +1145,10 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1146,8 +1180,10 @@
       <c r="G19" t="n">
         <v>0.1405647601617806</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.2971761991910968</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1179,8 +1215,10 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1212,8 +1250,10 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1245,8 +1285,10 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1278,8 +1320,10 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1311,8 +1355,10 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1344,8 +1390,10 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1377,8 +1425,10 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1410,8 +1460,10 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1443,8 +1495,10 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1476,8 +1530,10 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1509,8 +1565,10 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1542,8 +1600,10 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1575,8 +1635,10 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1608,8 +1670,10 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1641,8 +1705,10 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1674,8 +1740,10 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002437495</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1740,12 +1808,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1773,8 +1841,10 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1806,8 +1876,10 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1839,8 +1911,10 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1872,8 +1946,10 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1905,8 +1981,10 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1938,8 +2016,10 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1971,8 +2051,10 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2004,8 +2086,10 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2037,8 +2121,10 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2070,8 +2156,10 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2103,8 +2191,10 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2136,8 +2226,10 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2169,8 +2261,10 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2202,8 +2296,10 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2235,8 +2331,10 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2268,8 +2366,10 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2301,8 +2401,10 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2334,8 +2436,10 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2367,8 +2471,10 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2400,8 +2506,10 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2433,8 +2541,10 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2466,8 +2576,10 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2499,8 +2611,10 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2532,8 +2646,10 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2565,8 +2681,10 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2598,8 +2716,10 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2631,8 +2751,10 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2664,8 +2786,10 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2697,8 +2821,10 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2730,8 +2856,10 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2763,8 +2891,10 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2796,8 +2926,10 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2829,8 +2961,10 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp002451695</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2895,12 +3029,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -2928,8 +3062,10 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2961,8 +3097,10 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2994,8 +3132,10 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3027,8 +3167,10 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3060,8 +3202,10 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3093,8 +3237,10 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3126,8 +3272,10 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3159,8 +3307,10 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3192,8 +3342,10 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3225,8 +3377,10 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3258,8 +3412,10 @@
       <c r="G12" t="n">
         <v>0.1394496509236644</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.3027517453816784</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3291,8 +3447,10 @@
       <c r="G13" t="n">
         <v>0.1394496509236644</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.3027517453816784</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3324,8 +3482,10 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3357,8 +3517,10 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3390,8 +3552,10 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3423,8 +3587,10 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3456,8 +3622,10 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3489,8 +3657,10 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3522,8 +3692,10 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3555,8 +3727,10 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3588,8 +3762,10 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3621,8 +3797,10 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -3654,8 +3832,10 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3687,8 +3867,10 @@
       <c r="G25" t="n">
         <v>2.245488955214705e-14</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.8217418278955251</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3720,8 +3902,10 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3753,8 +3937,10 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -3786,8 +3972,10 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -3819,8 +4007,10 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp003150315</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3885,12 +4075,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -3918,8 +4108,10 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -3951,8 +4143,10 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3984,8 +4178,10 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4017,8 +4213,10 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4050,8 +4248,10 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4083,8 +4283,10 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4116,8 +4318,10 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4149,8 +4353,10 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4182,8 +4388,10 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4215,8 +4423,10 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4248,8 +4458,10 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4281,8 +4493,10 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4314,8 +4528,10 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4347,8 +4563,10 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4380,8 +4598,10 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4413,8 +4633,10 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4446,8 +4668,10 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -4479,8 +4703,10 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4512,8 +4738,10 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4545,8 +4773,10 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4578,8 +4808,10 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4611,8 +4843,10 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -4644,8 +4878,10 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -4677,8 +4913,10 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4710,8 +4948,10 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900314335</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -4776,12 +5016,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -4809,8 +5049,10 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4842,8 +5084,10 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4875,8 +5119,10 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4908,8 +5154,10 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4941,8 +5189,10 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4974,8 +5224,10 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5007,8 +5259,10 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5040,8 +5294,10 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -5073,8 +5329,10 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -5106,8 +5364,10 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5139,8 +5399,10 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5172,8 +5434,10 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5205,8 +5469,10 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5238,8 +5504,10 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5271,8 +5539,10 @@
       <c r="G16" t="n">
         <v>0.4700417510987533</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.5299582488902914</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5304,8 +5574,10 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5337,8 +5609,10 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5370,8 +5644,10 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5403,8 +5679,10 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5436,8 +5714,10 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -5469,8 +5749,10 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5502,8 +5784,10 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5535,8 +5819,10 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5568,8 +5854,10 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5601,8 +5889,10 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5634,8 +5924,10 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5667,8 +5959,10 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -5700,8 +5994,10 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -5733,8 +6029,10 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -5766,8 +6064,10 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -5799,8 +6099,10 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900550635</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -5865,12 +6167,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5898,8 +6200,10 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5931,8 +6235,10 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5964,8 +6270,10 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5997,8 +6305,10 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6030,8 +6340,10 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -6063,8 +6375,10 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -6096,8 +6410,10 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -6129,8 +6445,10 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -6162,8 +6480,10 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -6195,8 +6515,10 @@
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -6228,8 +6550,10 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -6261,8 +6585,10 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -6294,8 +6620,10 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -6327,8 +6655,10 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -6360,8 +6690,10 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -6393,8 +6725,10 @@
       <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -6426,8 +6760,10 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6459,8 +6795,10 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6492,8 +6830,10 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__UBA6398 sp900555645</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>

--- a/outputs-r202/g__UBA6398_train.xlsx
+++ b/outputs-r202/g__UBA6398_train.xlsx
@@ -552,12 +552,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -585,10 +585,8 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -620,10 +618,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -655,10 +651,8 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -690,10 +684,8 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -725,10 +717,8 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -760,10 +750,8 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -795,10 +783,8 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -830,10 +816,8 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -865,10 +849,8 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -900,10 +882,8 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -935,10 +915,8 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -970,10 +948,8 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1005,10 +981,8 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1040,10 +1014,8 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1075,10 +1047,8 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1110,10 +1080,8 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1145,10 +1113,8 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1180,10 +1146,8 @@
       <c r="G19" t="n">
         <v>0.1405647601617806</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0.2971761991910968</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1215,10 +1179,8 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1250,10 +1212,8 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1285,10 +1245,8 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1320,10 +1278,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1355,10 +1311,8 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1390,10 +1344,8 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1425,10 +1377,8 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1460,10 +1410,8 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1495,10 +1443,8 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1530,10 +1476,8 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1565,10 +1509,8 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1600,10 +1542,8 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1635,10 +1575,8 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1670,10 +1608,8 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1705,10 +1641,8 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1740,10 +1674,8 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002437495</t>
-        </is>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1808,12 +1740,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1841,10 +1773,8 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1876,10 +1806,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1911,10 +1839,8 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1946,10 +1872,8 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1981,10 +1905,8 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2016,10 +1938,8 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2051,10 +1971,8 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2086,10 +2004,8 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2121,10 +2037,8 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2156,10 +2070,8 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2191,10 +2103,8 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2226,10 +2136,8 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2261,10 +2169,8 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2296,10 +2202,8 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2331,10 +2235,8 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2366,10 +2268,8 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2401,10 +2301,8 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2436,10 +2334,8 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2471,10 +2367,8 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2506,10 +2400,8 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2541,10 +2433,8 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2576,10 +2466,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2611,10 +2499,8 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2646,10 +2532,8 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2681,10 +2565,8 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2716,10 +2598,8 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2751,10 +2631,8 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2786,10 +2664,8 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2821,10 +2697,8 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2856,10 +2730,8 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2891,10 +2763,8 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2926,10 +2796,8 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2961,10 +2829,8 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp002451695</t>
-        </is>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3029,12 +2895,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -3062,10 +2928,8 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -3097,10 +2961,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3132,10 +2994,8 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3167,10 +3027,8 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3202,10 +3060,8 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3237,10 +3093,8 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3272,10 +3126,8 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3307,10 +3159,8 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3342,10 +3192,8 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3377,10 +3225,8 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3412,10 +3258,8 @@
       <c r="G12" t="n">
         <v>0.1394496509236644</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0.3027517453816784</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3447,10 +3291,8 @@
       <c r="G13" t="n">
         <v>0.1394496509236644</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0.3027517453816784</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3482,10 +3324,8 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3517,10 +3357,8 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3552,10 +3390,8 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3587,10 +3423,8 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3622,10 +3456,8 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3657,10 +3489,8 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3692,10 +3522,8 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3727,10 +3555,8 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3762,10 +3588,8 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3797,10 +3621,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -3832,10 +3654,8 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3867,10 +3687,8 @@
       <c r="G25" t="n">
         <v>2.245488955214705e-14</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H25" t="n">
+        <v>0.8217418278955251</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3902,10 +3720,8 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3937,10 +3753,8 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -3972,10 +3786,8 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -4007,10 +3819,8 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp003150315</t>
-        </is>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -4075,12 +3885,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -4108,10 +3918,8 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4143,10 +3951,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4178,10 +3984,8 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4213,10 +4017,8 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4248,10 +4050,8 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4283,10 +4083,8 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4318,10 +4116,8 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4353,10 +4149,8 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4388,10 +4182,8 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -4423,10 +4215,8 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -4458,10 +4248,8 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -4493,10 +4281,8 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4528,10 +4314,8 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4563,10 +4347,8 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4598,10 +4380,8 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4633,10 +4413,8 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4668,10 +4446,8 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -4703,10 +4479,8 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4738,10 +4512,8 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4773,10 +4545,8 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4808,10 +4578,8 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4843,10 +4611,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -4878,10 +4644,8 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -4913,10 +4677,8 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -4948,10 +4710,8 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900314335</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5016,12 +4776,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5049,10 +4809,8 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -5084,10 +4842,8 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -5119,10 +4875,8 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -5154,10 +4908,8 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -5189,10 +4941,8 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -5224,10 +4974,8 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5259,10 +5007,8 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -5294,10 +5040,8 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -5329,10 +5073,8 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -5364,10 +5106,8 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5399,10 +5139,8 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5434,10 +5172,8 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5469,10 +5205,8 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5504,10 +5238,8 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5539,10 +5271,8 @@
       <c r="G16" t="n">
         <v>0.4700417510987533</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H16" t="n">
+        <v>0.5299582488902914</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5574,10 +5304,8 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5609,10 +5337,8 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5644,10 +5370,8 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5679,10 +5403,8 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5714,10 +5436,8 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -5749,10 +5469,8 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5784,10 +5502,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5819,10 +5535,8 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5854,10 +5568,8 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5889,10 +5601,8 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5924,10 +5634,8 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5959,10 +5667,8 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -5994,10 +5700,8 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6029,10 +5733,8 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6064,10 +5766,8 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6099,10 +5799,8 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900550635</t>
-        </is>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -6167,12 +5865,12 @@
       </c>
       <c r="H1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -6200,10 +5898,8 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -6235,10 +5931,8 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -6270,10 +5964,8 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -6305,10 +5997,8 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6340,10 +6030,8 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -6375,10 +6063,8 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -6410,10 +6096,8 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -6445,10 +6129,8 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -6480,10 +6162,8 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -6515,10 +6195,8 @@
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -6550,10 +6228,8 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -6585,10 +6261,8 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -6620,10 +6294,8 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -6655,10 +6327,8 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -6690,10 +6360,8 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -6725,10 +6393,8 @@
       <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -6760,10 +6426,8 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -6795,10 +6459,8 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -6830,10 +6492,8 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__UBA6398 sp900555645</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
